--- a/preprocessed_data/4호선/2022_4호선_공휴일_하선.xlsx
+++ b/preprocessed_data/4호선/2022_4호선_공휴일_하선.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f199c170268207/바탕 화면/myCoding/FORZA-DATA/preprocessed_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0yeon\FORZA-DATA\preprocessed_data\4호선\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2C7C8FB137ACE011AFFA33ED8004219131D3958A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E93A3CBB-45F7-4852-B4DC-A18F6ED455BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129E4D21-DD31-40FF-A9E0-624A74B1E7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="역명" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>총신대입구</t>
   </si>
   <si>
-    <t>미아삼거리</t>
-  </si>
-  <si>
     <t>한성대입구</t>
   </si>
   <si>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미아사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +802,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -928,7 +929,7 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1.6</v>
@@ -1044,7 +1045,7 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>3.8</v>
@@ -1157,7 +1158,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>4.9000000000000004</v>
@@ -1270,7 +1271,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>8.4</v>
@@ -1386,7 +1387,7 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>11.1</v>
@@ -1502,7 +1503,7 @@
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>15.2</v>
@@ -1618,7 +1619,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -1733,8 +1734,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
+      <c r="A9" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B9">
         <v>19.2</v>
@@ -1850,7 +1851,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>23</v>
@@ -2082,7 +2083,7 @@
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>19.399999999999999</v>
@@ -2198,7 +2199,7 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>20.9</v>
@@ -2314,7 +2315,7 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>21.3</v>
@@ -2546,7 +2547,7 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>13.7</v>
@@ -2662,7 +2663,7 @@
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>13.6</v>
@@ -2778,7 +2779,7 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>6.6</v>
@@ -2894,7 +2895,7 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>6.8</v>
@@ -3126,7 +3127,7 @@
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>10.7</v>
@@ -3242,7 +3243,7 @@
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>10.7</v>
@@ -3358,7 +3359,7 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>11.8</v>
@@ -3474,7 +3475,7 @@
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24">
         <v>9.4</v>
@@ -3700,7 +3701,7 @@
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26">
         <v>7.2</v>
@@ -3816,7 +3817,7 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>7.3</v>
@@ -3941,93 +3942,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D87E74-3FF5-46DC-8AC9-D91A532B955D}">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
       </c>
       <c r="K1" t="s">
         <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
       <c r="S1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s">
         <v>40</v>
       </c>
       <c r="Z1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
